--- a/其他/note.xlsx
+++ b/其他/note.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\FFXIV_Auxiliary_Tools\其他\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F59A99-01F2-49C6-A5E2-D9DFE086C543}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C907E99D-A769-41A6-A0B5-C51C71916A81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15375" yWindow="45" windowWidth="18045" windowHeight="11850" activeTab="5" xr2:uid="{2761565A-A921-498C-86BF-4776277EE652}"/>
+    <workbookView xWindow="12075" yWindow="2340" windowWidth="18045" windowHeight="11850" activeTab="6" xr2:uid="{2761565A-A921-498C-86BF-4776277EE652}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="JS" sheetId="5" r:id="rId4"/>
     <sheet name="JQ" sheetId="7" r:id="rId5"/>
     <sheet name="事件" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="888">
   <si>
     <t>ID</t>
   </si>
@@ -2438,32 +2439,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>onImportLogEvent</t>
-  </si>
-  <si>
-    <t>onZoneChangedEvent</t>
-  </si>
-  <si>
-    <t>onFateEvent</t>
-  </si>
-  <si>
-    <t>onCEEvent</t>
-  </si>
-  <si>
-    <t>onPlayerDied</t>
-  </si>
-  <si>
-    <t>onPartyWipe</t>
-  </si>
-  <si>
     <t>onInCombatChangedEvent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>战斗改变</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>onLogEvent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2476,117 +2455,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Force重新加载?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏存在事件?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏活动更改?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player死亡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>团灭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cactbot</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MiniParse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CombatData</t>
-  </si>
-  <si>
-    <t>LogLine</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>rawLine</t>
-  </si>
-  <si>
-    <t>OverlayPlugin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ImportedLogLines</t>
-  </si>
-  <si>
-    <t>导入日志行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>logLines</t>
-  </si>
-  <si>
-    <t>ChangeZone</t>
-  </si>
-  <si>
-    <t>zoneID</t>
-  </si>
-  <si>
-    <t>ChangePrimaryPlayer</t>
-  </si>
-  <si>
-    <t>charID</t>
-  </si>
-  <si>
-    <t>charName</t>
   </si>
   <si>
     <t>OnlineStatusChanged</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>rawStatus</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>PartyChanged</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>worldId</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>inParty</t>
-  </si>
-  <si>
-    <t>OverlayPlugin</t>
-  </si>
-  <si>
     <t>BroadcastMessage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2599,223 +2474,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>EnmityAggroList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>onSendSaveData</t>
-  </si>
-  <si>
-    <t>日志事件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域变化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前玩家变更</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>onForceReload</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>onInitializeOverlay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>onDataFilesRead</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF032F62"/>
-        <rFont val="微软雅黑"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>缺少订阅</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保存</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>读取</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据统计</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>战斗数据</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日志行</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>导入日志行</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>区域变更</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当前玩家变更</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文件改变</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>在线状态变更</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小队变更</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>敌人目标</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>敌人仇恨列表</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2997,14 +2656,302 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DOMContentLoaded</t>
+    <t>onZoneChangedEvent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnmityAggroList</t>
+  </si>
+  <si>
+    <t>MiniParse</t>
+  </si>
+  <si>
+    <t>onImportLogEvent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>onFateEvent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>onCEEvent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>onPlayerDied</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>onPartyWipe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>onUserFileChanged</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CombatData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogLine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeZone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangePrimaryPlayer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartyChanged</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要玩家</t>
+  </si>
+  <si>
+    <t>文件更改</t>
+  </si>
+  <si>
+    <t>在线状态已更改</t>
+  </si>
+  <si>
+    <t>广播信息</t>
+  </si>
+  <si>
+    <t>敌意目标数据</t>
+  </si>
+  <si>
+    <t>战斗数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>变换区域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>队伍改变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制重新加载</t>
+  </si>
+  <si>
+    <t>游戏存在于事件中</t>
+  </si>
+  <si>
+    <t>游戏活动已更改事件</t>
+  </si>
+  <si>
+    <t>日志事件</t>
+  </si>
+  <si>
+    <t>导入日志事件</t>
+  </si>
+  <si>
+    <t>战斗改变事件</t>
+  </si>
+  <si>
+    <t>区域更改事件</t>
+  </si>
+  <si>
+    <t>玩家死了</t>
+  </si>
+  <si>
+    <t>用户文件已更改</t>
+  </si>
+  <si>
+    <t>队伍团灭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家更换事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>CE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>事件</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>FATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>事件</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Darkness</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>摆脱</t>
+  </si>
+  <si>
+    <t>5b1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炽天的幕帘</t>
+  </si>
+  <si>
+    <t>77d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼓舞</t>
+  </si>
+  <si>
+    <t>黑夜领域</t>
+  </si>
+  <si>
+    <t>圣光幕帘</t>
+  </si>
+  <si>
+    <t>2d7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天星冲日（夜）</t>
+  </si>
+  <si>
+    <t>暗黑布道</t>
+  </si>
+  <si>
+    <t>策动</t>
+  </si>
+  <si>
+    <t>79f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防守之桑巴</t>
+  </si>
+  <si>
+    <t>行吟</t>
+  </si>
+  <si>
+    <t>78e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光之心</t>
+  </si>
+  <si>
+    <t>72f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>节制</t>
+  </si>
+  <si>
+    <t>武装</t>
+  </si>
+  <si>
+    <t>命运之轮（夜）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4b6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命运之轮（昼）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>野战治疗阵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异想的幻光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昏乱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4b3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牵制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4ab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪仇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4a9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3035,52 +2982,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF032F62"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF032F62"/>
-      <name val="微软雅黑"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF032F62"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3093,13 +2999,6 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3119,6 +3018,46 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF7030A0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF10273F"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3128,7 +3067,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3136,16 +3075,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3161,46 +3159,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="解释性文本" xfId="1" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8036,27 +8039,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>870</v>
+      <c r="A1" s="7" t="s">
+        <v>811</v>
       </c>
       <c r="B1" t="s">
-        <v>871</v>
+        <v>812</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>872</v>
+      <c r="A2" s="7" t="s">
+        <v>813</v>
       </c>
       <c r="B2" t="s">
-        <v>873</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>874</v>
+      <c r="A3" s="7" t="s">
+        <v>815</v>
       </c>
       <c r="B3" t="s">
-        <v>875</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -8067,485 +8070,601 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CCE475-7706-4C10-BA5F-635B38645946}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="105.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="33.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="8"/>
+    <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>830</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>818</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>800</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>826</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>803</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>818</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>848</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>818</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>854</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>855</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>824</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>819</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>858</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="9" t="s">
-        <v>820</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>859</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>824</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>821</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>860</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>822</v>
-      </c>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="9" t="s">
-        <v>823</v>
-      </c>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>824</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>825</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>861</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>827</v>
-      </c>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>824</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>828</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>862</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>829</v>
-      </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>824</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>830</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>863</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>831</v>
-      </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="9" t="s">
-        <v>832</v>
-      </c>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>843</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>845</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>864</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="14" t="s">
-        <v>824</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>833</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>865</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>834</v>
-      </c>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="9" t="s">
-        <v>835</v>
-      </c>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="9" t="s">
-        <v>836</v>
-      </c>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>824</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>837</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>866</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>838</v>
-      </c>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="9" t="s">
-        <v>839</v>
-      </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="9" t="s">
-        <v>841</v>
-      </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="9" t="s">
-        <v>842</v>
-      </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>844</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>867</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>868</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="13" t="s">
-        <v>876</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A14811-BBA9-4433-A676-31D8C4393FBC}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>858</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>860</v>
+      </c>
+      <c r="B4" s="12">
+        <v>129</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>861</v>
+      </c>
+      <c r="B5" s="12">
+        <v>345</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>864</v>
+      </c>
+      <c r="B7" s="12">
+        <v>757</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="B8" s="12">
+        <v>766</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>866</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>868</v>
+      </c>
+      <c r="B10" s="16">
+        <v>722</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>869</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>870</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>871</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>873</v>
+      </c>
+      <c r="B13" s="12">
+        <v>751</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="B14" s="12">
+        <v>498</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>875</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="B16" s="12">
+        <v>351</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>878</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>882</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>884</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>886</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>